--- a/DataBase/Model_and_persistence.xlsx
+++ b/DataBase/Model_and_persistence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,7 +356,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
@@ -374,9 +374,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Buena" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -682,10 +683,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +694,7 @@
     <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -710,7 +711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -727,7 +728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>48</v>
       </c>
@@ -744,7 +745,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -761,7 +762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
@@ -778,7 +779,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
@@ -795,24 +796,24 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -829,41 +830,41 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>51</v>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -880,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
@@ -896,25 +897,26 @@
       <c r="E12" s="5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
+      <c r="B13" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
@@ -931,7 +933,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>8</v>
       </c>
@@ -948,20 +950,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>51</v>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -969,16 +971,16 @@
       <c r="A17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>51</v>
+      <c r="B17" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" s="6" t="s">
+      <c r="D17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>51</v>
       </c>
     </row>
@@ -986,16 +988,16 @@
       <c r="A18" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="6" t="s">
+      <c r="B18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>51</v>
       </c>
     </row>

--- a/DataBase/Model_and_persistence.xlsx
+++ b/DataBase/Model_and_persistence.xlsx
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DataBase/Model_and_persistence.xlsx
+++ b/DataBase/Model_and_persistence.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -377,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,7 +766,7 @@
       <c r="A5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -783,7 +783,7 @@
       <c r="A6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -801,13 +801,13 @@
         <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>51</v>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>51</v>
@@ -823,7 +823,7 @@
       <c r="C8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -840,7 +840,7 @@
       <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -852,16 +852,16 @@
         <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>51</v>
+      <c r="D10" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -874,7 +874,7 @@
       <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -891,7 +891,7 @@
       <c r="C12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="5" t="s">
@@ -909,7 +909,7 @@
       <c r="C13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -926,7 +926,7 @@
       <c r="C14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E14" s="5" t="s">
@@ -943,7 +943,7 @@
       <c r="C15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -960,11 +960,11 @@
       <c r="C16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>51</v>
+      <c r="D16" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,11 +977,11 @@
       <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>51</v>
+      <c r="D17" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -995,10 +995,10 @@
         <v>51</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">

--- a/DataBase/Model_and_persistence.xlsx
+++ b/DataBase/Model_and_persistence.xlsx
@@ -136,9 +136,6 @@
     <t>locals_warehouses_users</t>
   </si>
   <si>
-    <t>lant_type</t>
-  </si>
-  <si>
     <t>lands_users</t>
   </si>
   <si>
@@ -167,12 +164,15 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>land_type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Buena" xfId="1" builtinId="26"/>
     <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,27 +707,27 @@
         <v>11</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,13 +735,13 @@
         <v>9</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -749,27 +749,27 @@
         <v>19</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -777,13 +777,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -791,13 +791,13 @@
         <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -805,13 +805,13 @@
         <v>23</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -819,13 +819,13 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -833,13 +833,13 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -847,13 +847,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F12" s="8"/>
     </row>
@@ -862,13 +862,13 @@
         <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -876,13 +876,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -890,13 +890,13 @@
         <v>7</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -904,13 +904,13 @@
         <v>25</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,13 +918,13 @@
         <v>24</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,41 +932,41 @@
         <v>26</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>50</v>
+      <c r="B19" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>50</v>
+      <c r="B20" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,69 +974,69 @@
         <v>6</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="6" t="s">
-        <v>50</v>
+      <c r="B22" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>50</v>
+      <c r="B23" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="6" t="s">
         <v>50</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1044,13 +1044,13 @@
         <v>36</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1058,13 +1058,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -1072,13 +1072,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -1086,13 +1086,13 @@
         <v>32</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -1100,13 +1100,13 @@
         <v>39</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -1114,13 +1114,13 @@
         <v>34</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -1128,13 +1128,13 @@
         <v>35</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -1142,27 +1142,27 @@
         <v>21</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -1170,13 +1170,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -1184,13 +1184,13 @@
         <v>22</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1198,55 +1198,55 @@
         <v>17</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1254,13 +1254,13 @@
         <v>8</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1268,13 +1268,13 @@
         <v>15</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1282,13 +1282,13 @@
         <v>30</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1296,13 +1296,13 @@
         <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,27 +1310,27 @@
         <v>13</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/DataBase/Model_and_persistence.xlsx
+++ b/DataBase/Model_and_persistence.xlsx
@@ -184,13 +184,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,8 +218,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,11 +237,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -346,36 +342,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="4" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Buena" xfId="1" builtinId="26"/>
-    <cellStyle name="Cálculo" xfId="4" builtinId="22"/>
-    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
+    <cellStyle name="Cálculo" xfId="3" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Salida" xfId="3" builtinId="21"/>
+    <cellStyle name="Salida" xfId="2" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -679,8 +673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,10 +745,10 @@
       <c r="B5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -765,10 +759,10 @@
       <c r="B6" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -779,7 +773,7 @@
       <c r="B7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -793,7 +787,7 @@
       <c r="B8" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -807,7 +801,7 @@
       <c r="B9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -821,7 +815,7 @@
       <c r="B10" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -835,7 +829,7 @@
       <c r="B11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
@@ -849,13 +843,13 @@
       <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
@@ -864,7 +858,7 @@
       <c r="B13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -878,7 +872,7 @@
       <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="5" t="s">
@@ -892,7 +886,7 @@
       <c r="B15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -906,7 +900,7 @@
       <c r="B16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -920,7 +914,7 @@
       <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>48</v>
       </c>
       <c r="D17" s="5" t="s">
@@ -931,13 +925,13 @@
       <c r="A18" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="7" t="s">
+      <c r="B18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -945,13 +939,13 @@
       <c r="A19" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="7" t="s">
+      <c r="B19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -959,13 +953,13 @@
       <c r="A20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="7" t="s">
+      <c r="B20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1018,10 +1012,10 @@
       <c r="B24" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="7" t="s">
+      <c r="C24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1032,10 +1026,10 @@
       <c r="B25" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1043,13 +1037,13 @@
       <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="7" t="s">
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1057,13 +1051,13 @@
       <c r="A27" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="B27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1071,13 +1065,13 @@
       <c r="A28" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="B28" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1085,13 +1079,13 @@
       <c r="A29" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="7" t="s">
+      <c r="B29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1099,13 +1093,13 @@
       <c r="A30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D30" s="7" t="s">
+      <c r="B30" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1113,13 +1107,13 @@
       <c r="A31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="7" t="s">
+      <c r="B31" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1141,8 +1135,8 @@
       <c r="A33" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="6" t="s">
-        <v>49</v>
+      <c r="B33" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>48</v>
@@ -1155,8 +1149,8 @@
       <c r="A34" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="6" t="s">
-        <v>49</v>
+      <c r="B34" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>48</v>
@@ -1169,8 +1163,8 @@
       <c r="A35" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>49</v>
+      <c r="B35" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>48</v>
@@ -1183,8 +1177,8 @@
       <c r="A36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="6" t="s">
-        <v>49</v>
+      <c r="B36" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>48</v>
@@ -1197,8 +1191,8 @@
       <c r="A37" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="6" t="s">
-        <v>49</v>
+      <c r="B37" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>48</v>
@@ -1211,8 +1205,8 @@
       <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>49</v>
+      <c r="B38" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>48</v>
@@ -1225,8 +1219,8 @@
       <c r="A39" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>49</v>
+      <c r="B39" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>48</v>
@@ -1239,8 +1233,8 @@
       <c r="A40" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>49</v>
+      <c r="B40" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>48</v>
@@ -1267,8 +1261,8 @@
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="6" t="s">
-        <v>49</v>
+      <c r="B42" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>48</v>
@@ -1282,7 +1276,7 @@
         <v>30</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>48</v>
@@ -1323,8 +1317,8 @@
       <c r="A46" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="6" t="s">
-        <v>49</v>
+      <c r="B46" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>48</v>
